--- a/input/梁抗弯承载力数据文件.xlsx
+++ b/input/梁抗弯承载力数据文件.xlsx
@@ -27,17 +27,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>编号</t>
   </si>
   <si>
+    <t>截面类型</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
     <t>h</t>
   </si>
   <si>
+    <t>bf</t>
+  </si>
+  <si>
+    <t>hf</t>
+  </si>
+  <si>
     <t>混凝土强度等级C</t>
   </si>
   <si>
@@ -59,7 +68,13 @@
     <t>受压钢筋as</t>
   </si>
   <si>
+    <t>矩形</t>
+  </si>
+  <si>
     <t>HRB400</t>
+  </si>
+  <si>
+    <t>T形</t>
   </si>
 </sst>
 </file>
@@ -675,12 +690,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1207,15 +1225,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="16384" width="8.8421052631579" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,68 +1267,91 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="2" spans="1:13">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
         <v>250</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="2">
         <v>500</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2">
         <v>2000</v>
       </c>
-      <c r="H2">
+      <c r="K2" s="2">
         <v>42.5</v>
       </c>
-      <c r="I2">
+      <c r="L2" s="2">
         <v>1000</v>
       </c>
-      <c r="J2">
+      <c r="M2" s="2">
         <v>42.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
+    <row r="3" spans="1:13">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
         <v>300</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="2">
         <v>600</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F3" s="2">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="2">
         <v>4000</v>
       </c>
-      <c r="H3">
+      <c r="K3" s="2">
         <v>42.5</v>
       </c>
-      <c r="I3">
+      <c r="L3" s="2">
         <v>600</v>
       </c>
-      <c r="J3">
+      <c r="M3" s="2">
         <v>42.5</v>
       </c>
     </row>

--- a/input/梁抗弯承载力数据文件.xlsx
+++ b/input/梁抗弯承载力数据文件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22193" windowHeight="9150"/>
+    <workbookView windowWidth="22185" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>编号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+  <si>
+    <t>截面编号</t>
+  </si>
+  <si>
+    <t>结构重要性系数γ0</t>
+  </si>
+  <si>
+    <t>弯矩设计值M</t>
+  </si>
+  <si>
+    <t>是否地震作用组合</t>
   </si>
   <si>
     <t>截面类型</t>
@@ -81,14 +90,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -434,12 +454,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,144 +595,162 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,137 +1278,441 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="8.8421052631579" style="2"/>
+    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7333333333333" style="2" customWidth="1"/>
+    <col min="3" max="7" width="8.84166666666667" style="2"/>
+    <col min="8" max="8" width="9.375" style="2"/>
+    <col min="9" max="12" width="8.84166666666667" style="2"/>
+    <col min="13" max="13" width="9.375" style="2"/>
+    <col min="14" max="14" width="8.84166666666667" style="2"/>
+    <col min="15" max="15" width="9.375" style="2"/>
+    <col min="16" max="16" width="8.84166666666667" style="2"/>
+    <col min="18" max="16384" width="8.84166666666667" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:16">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2">
+    <row r="2" customHeight="1" spans="1:16">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>250</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7">
+        <v>300</v>
+      </c>
+      <c r="G2" s="7">
+        <v>600</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="8">
+        <v>9000</v>
+      </c>
+      <c r="N2" s="8">
+        <v>42.5</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7">
+        <v>300</v>
+      </c>
+      <c r="G3" s="7">
+        <v>600</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="8">
+        <v>2500</v>
+      </c>
+      <c r="N3" s="8">
+        <v>42.5</v>
+      </c>
+      <c r="O3" s="8">
         <v>500</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="P3" s="8">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:16">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="7">
+        <v>300</v>
+      </c>
+      <c r="G4" s="7">
+        <v>600</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8">
         <v>30</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N4" s="8">
         <v>42.5</v>
       </c>
-      <c r="L2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="O4" s="8">
+        <v>500</v>
+      </c>
+      <c r="P4" s="8">
         <v>42.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
+    <row r="5" customHeight="1" spans="1:16">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7">
         <v>300</v>
       </c>
-      <c r="D3" s="2">
+      <c r="G5" s="7">
         <v>600</v>
       </c>
-      <c r="E3" s="2">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="8">
+        <v>9000</v>
+      </c>
+      <c r="N5" s="8">
+        <v>42.5</v>
+      </c>
+      <c r="O5" s="8">
+        <v>500</v>
+      </c>
+      <c r="P5" s="8">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:16">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7">
+        <v>300</v>
+      </c>
+      <c r="G6" s="7">
+        <v>600</v>
+      </c>
+      <c r="H6" s="7">
         <v>1200</v>
       </c>
-      <c r="F3" s="2">
-        <v>120</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="I6" s="7">
+        <v>100</v>
+      </c>
+      <c r="J6" s="8">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2">
-        <v>4000</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1500</v>
+      </c>
+      <c r="N6" s="8">
         <v>42.5</v>
       </c>
-      <c r="L3" s="2">
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:16">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7">
+        <v>300</v>
+      </c>
+      <c r="G7" s="7">
         <v>600</v>
       </c>
-      <c r="M3" s="2">
+      <c r="H7" s="7">
+        <v>1200</v>
+      </c>
+      <c r="I7" s="7">
+        <v>100</v>
+      </c>
+      <c r="J7" s="8">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="8">
+        <v>2500</v>
+      </c>
+      <c r="N7" s="8">
+        <v>42.5</v>
+      </c>
+      <c r="O7" s="8">
+        <v>500</v>
+      </c>
+      <c r="P7" s="8">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:16">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="7">
+        <v>300</v>
+      </c>
+      <c r="G8" s="7">
+        <v>600</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="7">
+        <v>100</v>
+      </c>
+      <c r="J8" s="8">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="8">
+        <v>5000</v>
+      </c>
+      <c r="N8" s="8">
+        <v>42.5</v>
+      </c>
+      <c r="O8" s="8">
+        <v>500</v>
+      </c>
+      <c r="P8" s="8">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:16">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7">
+        <v>300</v>
+      </c>
+      <c r="G9" s="7">
+        <v>600</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1200</v>
+      </c>
+      <c r="I9" s="7">
+        <v>100</v>
+      </c>
+      <c r="J9" s="8">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="8">
+        <v>9000</v>
+      </c>
+      <c r="N9" s="8">
+        <v>42.5</v>
+      </c>
+      <c r="O9" s="8">
+        <v>500</v>
+      </c>
+      <c r="P9" s="8">
         <v>42.5</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B2:B3 B10:B1048576">
+      <formula1>"1.1,1.0,0.9"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 F4:J4 M4:P4 C5 F5:J5 M5:P5 C6 F6:J6 N6:P6 C7 F7:J7 N7:P7 C8 F8:J8 M8 N8:P8 C9 F9:J9 M9 N9:P9 C2:C3 C10:C1048576 M6:M7 F2:J3 M2:P3 F10:J1048576 M10:P1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:L4 K5:L5 K6:L6 K7:L7 K8:L8 K9:L9 K2:L3 K10:L1048576">
+      <formula1>"HPB300,HRB335,HRB400,HRB500"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7 E8 E9 E2:E5 E10:E1048576">
+      <formula1>"矩形,T形"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"1,0"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/input/梁抗弯承载力数据文件.xlsx
+++ b/input/梁抗弯承载力数据文件.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>截面编号</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>受压钢筋as</t>
+  </si>
+  <si>
+    <t>受压区高度x</t>
+  </si>
+  <si>
+    <t>抗弯承载力Mu</t>
+  </si>
+  <si>
+    <t>抗弯承载力MuE</t>
+  </si>
+  <si>
+    <t>抗力效应比R/S</t>
   </si>
   <si>
     <t>矩形</t>
@@ -90,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -98,6 +110,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -454,27 +467,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,7 +599,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,34 +611,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,28 +727,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,439 +1276,494 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.7333333333333" style="2" customWidth="1"/>
-    <col min="3" max="7" width="8.84166666666667" style="2"/>
-    <col min="8" max="8" width="9.375" style="2"/>
-    <col min="9" max="12" width="8.84166666666667" style="2"/>
-    <col min="13" max="13" width="9.375" style="2"/>
-    <col min="14" max="14" width="8.84166666666667" style="2"/>
-    <col min="15" max="15" width="9.375" style="2"/>
-    <col min="16" max="16" width="8.84166666666667" style="2"/>
-    <col min="18" max="16384" width="8.84166666666667" style="3"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.7333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.375"/>
+    <col min="13" max="13" width="9.375"/>
+    <col min="15" max="15" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:16">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:20">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="5">
+        <v>250</v>
+      </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="7">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6">
         <v>300</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>600</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7">
         <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="8">
-        <v>9000</v>
-      </c>
-      <c r="N2" s="8">
+        <v>21</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1500</v>
+      </c>
+      <c r="N2" s="7">
         <v>42.5</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>0</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>42.5</v>
       </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="8"/>
     </row>
-    <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5">
+        <v>250</v>
+      </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6">
         <v>300</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>600</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7">
         <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="8">
+        <v>21</v>
+      </c>
+      <c r="M3" s="7">
         <v>2500</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>42.5</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>500</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <v>42.5</v>
       </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8"/>
     </row>
-    <row r="4" customHeight="1" spans="1:16">
-      <c r="B4" s="6">
+    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5">
+        <v>250</v>
+      </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6">
         <v>300</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>600</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7">
         <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="8">
+        <v>21</v>
+      </c>
+      <c r="M4" s="7">
         <v>5000</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>42.5</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>500</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>42.5</v>
       </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8"/>
     </row>
-    <row r="5" customHeight="1" spans="1:16">
-      <c r="B5" s="6">
+    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5">
+        <v>250</v>
+      </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6">
         <v>300</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>600</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7">
         <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="8">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
         <v>9000</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>42.5</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>500</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>42.5</v>
       </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8"/>
     </row>
-    <row r="6" customHeight="1" spans="1:16">
-      <c r="B6" s="6">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5">
+        <v>350</v>
+      </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="7">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6">
         <v>300</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>600</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>1200</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>100</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="8">
+        <v>21</v>
+      </c>
+      <c r="M6" s="7">
         <v>1500</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>42.5</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <v>42.5</v>
       </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
     </row>
-    <row r="7" customHeight="1" spans="1:16">
-      <c r="B7" s="6">
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5">
+        <v>350</v>
+      </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6">
         <v>300</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>600</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>1200</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>100</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="8">
+        <v>21</v>
+      </c>
+      <c r="M7" s="7">
         <v>2500</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>42.5</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>500</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>42.5</v>
       </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="8"/>
     </row>
-    <row r="8" customHeight="1" spans="1:16">
-      <c r="B8" s="6">
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="5">
+        <v>350</v>
+      </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="7">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6">
         <v>300</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>600</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>1200</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>100</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>30</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="8">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
         <v>5000</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>42.5</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>500</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>42.5</v>
       </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8"/>
     </row>
-    <row r="9" customHeight="1" spans="1:16">
-      <c r="B9" s="6">
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:20">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="5">
+        <v>350</v>
+      </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6">
         <v>300</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>600</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>1200</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>100</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>30</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="8">
+        <v>21</v>
+      </c>
+      <c r="M9" s="7">
         <v>9000</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>42.5</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>500</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>42.5</v>
       </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B2:B3 B10:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9">
       <formula1>"1.1,1.0,0.9"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 F4:J4 M4:P4 C5 F5:J5 M5:P5 C6 F6:J6 N6:P6 C7 F7:J7 N7:P7 C8 F8:J8 M8 N8:P8 C9 F9:J9 M9 N9:P9 C2:C3 C10:C1048576 M6:M7 F2:J3 M2:P3 F10:J1048576 M10:P1048576">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9 F2:J9 M2:P9">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:L4 K5:L5 K6:L6 K7:L7 K8:L8 K9:L9 K2:L3 K10:L1048576">
-      <formula1>"HPB300,HRB335,HRB400,HRB500"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9">
+      <formula1>"1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 E7 E8 E9 E2:E5 E10:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9">
       <formula1>"矩形,T形"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"1,0"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L9">
+      <formula1>"HPB300,HRB335,HRB400,HRB500"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/梁抗弯承载力数据文件.xlsx
+++ b/input/梁抗弯承载力数据文件.xlsx
@@ -1,281 +1,190 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="9135"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22193" windowHeight="9150" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
-  <si>
-    <t>截面编号</t>
-  </si>
-  <si>
-    <t>结构重要性系数γ0</t>
-  </si>
-  <si>
-    <t>弯矩设计值M</t>
-  </si>
-  <si>
-    <t>是否地震作用组合</t>
-  </si>
-  <si>
-    <t>截面类型</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>bf</t>
-  </si>
-  <si>
-    <t>hf</t>
-  </si>
-  <si>
-    <t>混凝土强度等级C</t>
-  </si>
-  <si>
-    <t>受拉钢筋强度等级</t>
-  </si>
-  <si>
-    <t>受压钢筋强度等级</t>
-  </si>
-  <si>
-    <t>受拉钢筋面积As</t>
-  </si>
-  <si>
-    <t>受拉钢筋as</t>
-  </si>
-  <si>
-    <t>受压钢筋面积As</t>
-  </si>
-  <si>
-    <t>受压钢筋as</t>
-  </si>
-  <si>
-    <t>受压区高度x</t>
-  </si>
-  <si>
-    <t>抗弯承载力Mu</t>
-  </si>
-  <si>
-    <t>抗弯承载力MuE</t>
-  </si>
-  <si>
-    <t>抗力效应比R/S</t>
-  </si>
-  <si>
-    <t>矩形</t>
-  </si>
-  <si>
-    <t>HRB400</t>
-  </si>
-  <si>
-    <t>T形</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0_ "/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="166" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="21">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -575,182 +484,198 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -996,7 +921,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1005,7 +930,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1018,11 +943,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1274,499 +1262,781 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84166666666667" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.842105263157899" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="10.7333333333333" customWidth="1"/>
-    <col min="8" max="8" width="9.375"/>
-    <col min="13" max="13" width="9.375"/>
-    <col min="15" max="15" width="9.375"/>
+    <col width="12.5" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.7368421052632" customWidth="1" style="3" min="2" max="2"/>
+    <col width="8.842105263157899" customWidth="1" style="3" min="3" max="7"/>
+    <col width="9.37719298245614" customWidth="1" style="3" min="8" max="8"/>
+    <col width="8.842105263157899" customWidth="1" style="3" min="9" max="12"/>
+    <col width="9.37719298245614" customWidth="1" style="3" min="13" max="13"/>
+    <col width="8.842105263157899" customWidth="1" style="3" min="14" max="14"/>
+    <col width="9.37719298245614" customWidth="1" style="3" min="15" max="15"/>
+    <col width="8.842105263157899" customWidth="1" style="3" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:20">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" ht="51" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>截面编号</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>结构重要性系数γ0</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>弯矩设计值M</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>是否地震作用组合</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>截面类型</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>bf</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>hf</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>混凝土强度等级C</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>受拉钢筋强度等级</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>受压钢筋强度等级</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>受拉钢筋面积As</t>
+        </is>
+      </c>
+      <c r="N1" s="4" t="inlineStr">
+        <is>
+          <t>受拉钢筋as</t>
+        </is>
+      </c>
+      <c r="O1" s="4" t="inlineStr">
+        <is>
+          <t>受压钢筋面积As</t>
+        </is>
+      </c>
+      <c r="P1" s="4" t="inlineStr">
+        <is>
+          <t>受压钢筋as</t>
+        </is>
+      </c>
+      <c r="Q1" s="4" t="inlineStr">
+        <is>
+          <t>受压区高度x</t>
+        </is>
+      </c>
+      <c r="R1" s="4" t="inlineStr">
+        <is>
+          <t>抗弯承载力Mu</t>
+        </is>
+      </c>
+      <c r="S1" s="4" t="inlineStr">
+        <is>
+          <t>抗弯承载力MuE</t>
+        </is>
+      </c>
+      <c r="T1" s="4" t="inlineStr">
+        <is>
+          <t>抗力效应比R/S</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="3">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>L-1</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
+      <c r="C2" s="10" t="n">
+        <v>250</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>矩形</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="n">
+        <v>250</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>500</v>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>HPB300</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>HRB335</t>
+        </is>
+      </c>
+      <c r="M2" s="12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N2" s="12" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="O2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5">
+    <row r="3" customFormat="1" s="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>L-2</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C3" s="10" t="n">
         <v>250</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>矩形</t>
+        </is>
+      </c>
+      <c r="F3" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G3" s="11" t="n">
+        <v>550</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>HRB335</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>HRB400</t>
+        </is>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N3" s="12" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="O3" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="P3" s="12" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" s="3">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>L-3</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>250</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>矩形</t>
+        </is>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>350</v>
+      </c>
+      <c r="G4" s="11" t="n">
         <v>600</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7">
+      <c r="H4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="7">
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>HRB400</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>HRB500</t>
+        </is>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N4" s="12" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="O4" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" s="3">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>L-4</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>250</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>矩形</t>
+        </is>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>650</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>HRB500</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>HPB300</t>
+        </is>
+      </c>
+      <c r="M5" s="12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N5" s="12" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="O5" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="N2" s="7">
+      <c r="P5" s="12" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" s="3">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>L-5</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>250</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>T形</t>
+        </is>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>450</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>700</v>
+      </c>
+      <c r="H6" s="11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>HPB300</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>HRB335</t>
+        </is>
+      </c>
+      <c r="M6" s="12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N6" s="12" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="O6" s="12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P6" s="12" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" s="3">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>L-6</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>250</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>T形</t>
+        </is>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>500</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>750</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="I7" s="11" t="n">
+        <v>110</v>
+      </c>
+      <c r="J7" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>HRB335</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>HRB400</t>
+        </is>
+      </c>
+      <c r="M7" s="12" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N7" s="12" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="O7" s="12" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P7" s="12" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="Q7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" s="3">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>L-7</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>250</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>T形</t>
+        </is>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>550</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>800</v>
+      </c>
+      <c r="H8" s="11" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I8" s="11" t="n">
+        <v>120</v>
+      </c>
+      <c r="J8" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>HRB400</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>HRB500</t>
+        </is>
+      </c>
+      <c r="M8" s="12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N8" s="12" t="n">
         <v>42.5</v>
       </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
+      <c r="O8" s="12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P8" s="12" t="n">
         <v>42.5</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="8"/>
+      <c r="Q8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5">
+    <row r="9" customFormat="1" s="3">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>L-8</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C9" s="10" t="n">
         <v>250</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>T形</t>
+        </is>
+      </c>
+      <c r="F9" s="11" t="n">
+        <v>600</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>850</v>
+      </c>
+      <c r="H9" s="11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>130</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>HRB500</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>HPB300</t>
+        </is>
+      </c>
+      <c r="M9" s="12" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N9" s="12" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="O9" s="12" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P9" s="12" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="Q9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="14">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>截面9</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>矩形</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G10" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7">
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="7">
-        <v>2500</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>HRB400</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>HRB400</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N10" s="12" t="n">
         <v>42.5</v>
       </c>
-      <c r="O3" s="7">
-        <v>500</v>
-      </c>
-      <c r="P3" s="7">
+      <c r="O10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="0" t="n">
         <v>42.5</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>250</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6">
-        <v>300</v>
-      </c>
-      <c r="G4" s="6">
-        <v>600</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="7">
-        <v>5000</v>
-      </c>
-      <c r="N4" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="O4" s="7">
-        <v>500</v>
-      </c>
-      <c r="P4" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>250</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6">
-        <v>300</v>
-      </c>
-      <c r="G5" s="6">
-        <v>600</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7">
-        <v>9000</v>
-      </c>
-      <c r="N5" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="O5" s="7">
-        <v>500</v>
-      </c>
-      <c r="P5" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>350</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="6">
-        <v>300</v>
-      </c>
-      <c r="G6" s="6">
-        <v>600</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1200</v>
-      </c>
-      <c r="I6" s="6">
-        <v>100</v>
-      </c>
-      <c r="J6" s="7">
-        <v>30</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1500</v>
-      </c>
-      <c r="N6" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>350</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6">
-        <v>300</v>
-      </c>
-      <c r="G7" s="6">
-        <v>600</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1200</v>
-      </c>
-      <c r="I7" s="6">
-        <v>100</v>
-      </c>
-      <c r="J7" s="7">
-        <v>30</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2500</v>
-      </c>
-      <c r="N7" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="O7" s="7">
-        <v>500</v>
-      </c>
-      <c r="P7" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>350</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6">
-        <v>300</v>
-      </c>
-      <c r="G8" s="6">
-        <v>600</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1200</v>
-      </c>
-      <c r="I8" s="6">
-        <v>100</v>
-      </c>
-      <c r="J8" s="7">
-        <v>30</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="7">
-        <v>5000</v>
-      </c>
-      <c r="N8" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="O8" s="7">
-        <v>500</v>
-      </c>
-      <c r="P8" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:20">
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>350</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="6">
-        <v>300</v>
-      </c>
-      <c r="G9" s="6">
-        <v>600</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1200</v>
-      </c>
-      <c r="I9" s="6">
-        <v>100</v>
-      </c>
-      <c r="J9" s="7">
-        <v>30</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="7">
-        <v>9000</v>
-      </c>
-      <c r="N9" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="O9" s="7">
-        <v>500</v>
-      </c>
-      <c r="P9" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
+      <c r="Q10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9">
+    <dataValidation sqref="B1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1"/>
+    <dataValidation sqref="C2:C9 F2:J9 M2:P9 N10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="decimal" operator="greaterThanOrEqual">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2:B9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"1.1,1.0,0.9"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9 F2:J9 M2:P9">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9">
+    <dataValidation sqref="D2:D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9">
+    <dataValidation sqref="E2:E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"矩形,T形"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L9">
+    <dataValidation sqref="K2:L9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"HPB300,HRB335,HRB400,HRB500"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/input/梁抗弯承载力数据文件.xlsx
+++ b/input/梁抗弯承载力数据文件.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>截面编号</t>
   </si>
@@ -75,18 +75,6 @@
   </si>
   <si>
     <t>受压钢筋as</t>
-  </si>
-  <si>
-    <t>受压区高度x</t>
-  </si>
-  <si>
-    <t>抗弯承载力Mu</t>
-  </si>
-  <si>
-    <t>抗弯承载力MuE</t>
-  </si>
-  <si>
-    <t>抗力效应比R/S</t>
   </si>
   <si>
     <t>L-1</t>
@@ -1312,7 +1300,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="13.5" customHeight="1"/>
@@ -1377,22 +1365,14 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="14.1" spans="1:20">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1404,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="6">
         <v>250</v>
@@ -1422,10 +1402,10 @@
         <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M2" s="7">
         <v>1500</v>
@@ -1446,7 +1426,7 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="14.1" spans="1:20">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1458,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6">
         <v>300</v>
@@ -1476,10 +1456,10 @@
         <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M3" s="7">
         <v>2500</v>
@@ -1500,7 +1480,7 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="14.1" spans="1:20">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1512,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6">
         <v>350</v>
@@ -1530,10 +1510,10 @@
         <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7">
         <v>5000</v>
@@ -1554,7 +1534,7 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="14.1" spans="1:20">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -1566,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6">
         <v>400</v>
@@ -1584,10 +1564,10 @@
         <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
         <v>9000</v>
@@ -1608,7 +1588,7 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="14.1" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -1620,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6">
         <v>450</v>
@@ -1638,10 +1618,10 @@
         <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>1500</v>
@@ -1662,7 +1642,7 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="14.1" spans="1:20">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -1674,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6">
         <v>500</v>
@@ -1692,10 +1672,10 @@
         <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>2500</v>
@@ -1716,7 +1696,7 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="14.1" spans="1:20">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1728,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F8" s="6">
         <v>550</v>
@@ -1746,10 +1726,10 @@
         <v>30</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>5000</v>
@@ -1770,7 +1750,7 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="14.1" spans="1:20">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -1782,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6">
         <v>600</v>
@@ -1800,10 +1780,10 @@
         <v>30</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M9" s="7">
         <v>9000</v>
